--- a/resolution-ratios.xlsx
+++ b/resolution-ratios.xlsx
@@ -138,7 +138,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,7 +159,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -168,14 +166,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -183,21 +179,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -205,7 +198,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -213,15 +205,12 @@
       <color rgb="FF5555FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFB7B3CA"/>
+      <color rgb="FF5555FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -230,14 +219,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -246,7 +233,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -255,14 +241,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -271,7 +255,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -280,7 +263,6 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -469,7 +451,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -478,9 +462,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -525,7 +507,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,6 +708,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,11 +728,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,7 +787,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB7B3CA"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -856,10 +842,10 @@
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -924,11 +910,11 @@
       </c>
       <c r="G2" s="13" t="n">
         <f aca="false">G3-64</f>
-        <v>704</v>
+        <v>896</v>
       </c>
       <c r="H2" s="13" t="n">
         <f aca="false">H3-64</f>
-        <v>512</v>
+        <v>704</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="4"/>
@@ -956,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="16" t="n">
+        <v>768</v>
+      </c>
+      <c r="C3" s="16" t="n">
         <v>512</v>
-      </c>
-      <c r="C3" s="16" t="n">
-        <v>768</v>
       </c>
       <c r="D3" s="17" t="n">
         <f aca="false">2048*2048</f>
@@ -970,14 +956,14 @@
         <v>12</v>
       </c>
       <c r="G3" s="20" t="n">
+        <v>960</v>
+      </c>
+      <c r="H3" s="20" t="n">
         <v>768</v>
-      </c>
-      <c r="H3" s="20" t="n">
-        <v>576</v>
       </c>
       <c r="I3" s="21" t="n">
         <f aca="false">G3*H3</f>
-        <v>442368</v>
+        <v>737280</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1018,11 +1004,11 @@
       </c>
       <c r="G4" s="26" t="n">
         <f aca="false">G3+64</f>
-        <v>832</v>
+        <v>1024</v>
       </c>
       <c r="H4" s="26" t="n">
         <f aca="false">H3+64</f>
-        <v>640</v>
+        <v>832</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>18</v>
@@ -1064,15 +1050,15 @@
       <c r="F5" s="4"/>
       <c r="G5" s="32" t="n">
         <f aca="false">B3/C3</f>
-        <v>0.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="32" t="n">
         <f aca="false">H7/I7</f>
-        <v>1.33333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="I5" s="33" t="n">
         <f aca="false">G5/H5</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1141,33 +1127,33 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="n">
         <f aca="false">B3/C3</f>
-        <v>0.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="B7" s="39" t="str">
         <f aca="false">_xlfn.CONCAT(B3/GCD(B3,C3),":",C3/GCD(B3,C3))</f>
-        <v>2:3</v>
+        <v>3:2</v>
       </c>
       <c r="C7" s="32" t="n">
         <f aca="false">B3/GCD(B3,C3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="32" t="n">
         <f aca="false">C3/GCD(B3,C3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="39" t="str">
         <f aca="false">_xlfn.CONCAT(G3/GCD(H3,G3),":",H3/GCD(H3,G3))</f>
-        <v>4:3</v>
+        <v>5:4</v>
       </c>
       <c r="H7" s="32" t="n">
         <f aca="false">G3/GCD(H3,G3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="32" t="n">
         <f aca="false">H3/GCD(H3,G3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1279,11 +1265,11 @@
       </c>
       <c r="B10" s="48" t="n">
         <f aca="false">(A10*64)*($C$7)</f>
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C10" s="48" t="n">
         <f aca="false">(A10*64)*($D$7)</f>
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D10" s="48" t="n">
         <f aca="false">B10*C10</f>
@@ -1293,10 +1279,10 @@
       <c r="F10" s="49" t="n">
         <v>1024</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="50" t="n">
         <v>2112</v>
       </c>
-      <c r="H10" s="50" t="str">
+      <c r="H10" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F10/GCD(G10,F10),":",G10/GCD(G10,F10))</f>
         <v>16:33</v>
       </c>
@@ -1308,13 +1294,14 @@
         <v>1024</v>
       </c>
       <c r="K10" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L10" s="50" t="str">
+      <c r="L10" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J10/GCD(K10,J10),":",K10/GCD(K10,J10))</f>
         <v>16:31</v>
       </c>
-      <c r="M10" s="51" t="n">
+      <c r="M10" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J10/K10) &lt; ($C$3/$B$3)/(J10/K10),($B$3/$C$3)/(J10/K10),($C$3/$B$3)/(J10/K10))</f>
         <v>1.29166666666667</v>
       </c>
@@ -1340,11 +1327,11 @@
       </c>
       <c r="B11" s="48" t="n">
         <f aca="false">(A11*64)*($C$7)</f>
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="C11" s="48" t="n">
         <f aca="false">(A11*64)*($D$7)</f>
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="D11" s="48" t="n">
         <f aca="false">B11*C11</f>
@@ -1355,9 +1342,10 @@
         <v>1088</v>
       </c>
       <c r="G11" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H11" s="50" t="str">
+      <c r="H11" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F11/GCD(G11,F11),":",G11/GCD(G11,F11))</f>
         <v>17:33</v>
       </c>
@@ -1369,13 +1357,14 @@
         <v>1088</v>
       </c>
       <c r="K11" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L11" s="50" t="str">
+      <c r="L11" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J11/GCD(K11,J11),":",K11/GCD(K11,J11))</f>
         <v>17:31</v>
       </c>
-      <c r="M11" s="51" t="n">
+      <c r="M11" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J11/K11) &lt; ($C$3/$B$3)/(J11/K11),($B$3/$C$3)/(J11/K11),($C$3/$B$3)/(J11/K11))</f>
         <v>1.2156862745098</v>
       </c>
@@ -1401,11 +1390,11 @@
       </c>
       <c r="B12" s="48" t="n">
         <f aca="false">(A12*64)*($C$7)</f>
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="C12" s="48" t="n">
         <f aca="false">(A12*64)*($D$7)</f>
-        <v>576</v>
+        <v>384</v>
       </c>
       <c r="D12" s="48" t="n">
         <f aca="false">B12*C12</f>
@@ -1416,9 +1405,10 @@
         <v>1152</v>
       </c>
       <c r="G12" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H12" s="50" t="str">
+      <c r="H12" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F12/GCD(G12,F12),":",G12/GCD(G12,F12))</f>
         <v>6:11</v>
       </c>
@@ -1430,13 +1420,14 @@
         <v>1152</v>
       </c>
       <c r="K12" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L12" s="50" t="str">
+      <c r="L12" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J12/GCD(K12,J12),":",K12/GCD(K12,J12))</f>
         <v>18:31</v>
       </c>
-      <c r="M12" s="51" t="n">
+      <c r="M12" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J12/K12) &lt; ($C$3/$B$3)/(J12/K12),($B$3/$C$3)/(J12/K12),($C$3/$B$3)/(J12/K12))</f>
         <v>1.14814814814815</v>
       </c>
@@ -1462,11 +1453,11 @@
       </c>
       <c r="B13" s="48" t="n">
         <f aca="false">(A13*64)*($C$7)</f>
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="C13" s="48" t="n">
         <f aca="false">(A13*64)*($D$7)</f>
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="D13" s="48" t="n">
         <f aca="false">B13*C13</f>
@@ -1477,9 +1468,10 @@
         <v>1216</v>
       </c>
       <c r="G13" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H13" s="50" t="str">
+      <c r="H13" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F13/GCD(G13,F13),":",G13/GCD(G13,F13))</f>
         <v>19:33</v>
       </c>
@@ -1491,13 +1483,14 @@
         <v>1216</v>
       </c>
       <c r="K13" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L13" s="50" t="str">
+      <c r="L13" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J13/GCD(K13,J13),":",K13/GCD(K13,J13))</f>
         <v>19:31</v>
       </c>
-      <c r="M13" s="51" t="n">
+      <c r="M13" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J13/K13) &lt; ($C$3/$B$3)/(J13/K13),($B$3/$C$3)/(J13/K13),($C$3/$B$3)/(J13/K13))</f>
         <v>1.08771929824561</v>
       </c>
@@ -1523,11 +1516,11 @@
       </c>
       <c r="B14" s="48" t="n">
         <f aca="false">(A14*64)*($C$7)</f>
-        <v>640</v>
+        <v>960</v>
       </c>
       <c r="C14" s="48" t="n">
         <f aca="false">(A14*64)*($D$7)</f>
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="D14" s="48" t="n">
         <f aca="false">B14*C14</f>
@@ -1538,9 +1531,10 @@
         <v>1280</v>
       </c>
       <c r="G14" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H14" s="50" t="str">
+      <c r="H14" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F14/GCD(G14,F14),":",G14/GCD(G14,F14))</f>
         <v>20:33</v>
       </c>
@@ -1552,13 +1546,14 @@
         <v>1280</v>
       </c>
       <c r="K14" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L14" s="50" t="str">
+      <c r="L14" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J14/GCD(K14,J14),":",K14/GCD(K14,J14))</f>
         <v>20:31</v>
       </c>
-      <c r="M14" s="51" t="n">
+      <c r="M14" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J14/K14) &lt; ($C$3/$B$3)/(J14/K14),($B$3/$C$3)/(J14/K14),($C$3/$B$3)/(J14/K14))</f>
         <v>1.03333333333333</v>
       </c>
@@ -1584,11 +1579,11 @@
       </c>
       <c r="B15" s="48" t="n">
         <f aca="false">(A15*64)*($C$7)</f>
-        <v>768</v>
+        <v>1152</v>
       </c>
       <c r="C15" s="48" t="n">
         <f aca="false">(A15*64)*($D$7)</f>
-        <v>1152</v>
+        <v>768</v>
       </c>
       <c r="D15" s="48" t="n">
         <f aca="false">B15*C15</f>
@@ -1599,9 +1594,10 @@
         <v>1344</v>
       </c>
       <c r="G15" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H15" s="50" t="str">
+      <c r="H15" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F15/GCD(G15,F15),":",G15/GCD(G15,F15))</f>
         <v>7:11</v>
       </c>
@@ -1613,13 +1609,14 @@
         <v>1344</v>
       </c>
       <c r="K15" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L15" s="50" t="str">
+      <c r="L15" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J15/GCD(K15,J15),":",K15/GCD(K15,J15))</f>
         <v>21:31</v>
       </c>
-      <c r="M15" s="51" t="n">
+      <c r="M15" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J15/K15) &lt; ($C$3/$B$3)/(J15/K15),($B$3/$C$3)/(J15/K15),($C$3/$B$3)/(J15/K15))</f>
         <v>0.984126984126984</v>
       </c>
@@ -1645,11 +1642,11 @@
       </c>
       <c r="B16" s="48" t="n">
         <f aca="false">(A16*64)*($C$7)</f>
-        <v>896</v>
+        <v>1344</v>
       </c>
       <c r="C16" s="48" t="n">
         <f aca="false">(A16*64)*($D$7)</f>
-        <v>1344</v>
+        <v>896</v>
       </c>
       <c r="D16" s="48" t="n">
         <f aca="false">B16*C16</f>
@@ -1660,9 +1657,10 @@
         <v>1408</v>
       </c>
       <c r="G16" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H16" s="50" t="str">
+      <c r="H16" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F16/GCD(G16,F16),":",G16/GCD(G16,F16))</f>
         <v>2:3</v>
       </c>
@@ -1674,13 +1672,14 @@
         <v>1408</v>
       </c>
       <c r="K16" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L16" s="50" t="str">
+      <c r="L16" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J16/GCD(K16,J16),":",K16/GCD(K16,J16))</f>
         <v>22:31</v>
       </c>
-      <c r="M16" s="51" t="n">
+      <c r="M16" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J16/K16) &lt; ($C$3/$B$3)/(J16/K16),($B$3/$C$3)/(J16/K16),($C$3/$B$3)/(J16/K16))</f>
         <v>0.939393939393939</v>
       </c>
@@ -1706,11 +1705,11 @@
       </c>
       <c r="B17" s="48" t="n">
         <f aca="false">(A17*64)*($C$7)</f>
-        <v>1024</v>
+        <v>1536</v>
       </c>
       <c r="C17" s="48" t="n">
         <f aca="false">(A17*64)*($D$7)</f>
-        <v>1536</v>
+        <v>1024</v>
       </c>
       <c r="D17" s="48" t="n">
         <f aca="false">B17*C17</f>
@@ -1721,9 +1720,10 @@
         <v>1472</v>
       </c>
       <c r="G17" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H17" s="50" t="str">
+      <c r="H17" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F17/GCD(G17,F17),":",G17/GCD(G17,F17))</f>
         <v>23:33</v>
       </c>
@@ -1735,13 +1735,14 @@
         <v>1472</v>
       </c>
       <c r="K17" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L17" s="50" t="str">
+      <c r="L17" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J17/GCD(K17,J17),":",K17/GCD(K17,J17))</f>
         <v>23:31</v>
       </c>
-      <c r="M17" s="51" t="n">
+      <c r="M17" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J17/K17) &lt; ($C$3/$B$3)/(J17/K17),($B$3/$C$3)/(J17/K17),($C$3/$B$3)/(J17/K17))</f>
         <v>0.898550724637681</v>
       </c>
@@ -1767,11 +1768,11 @@
       </c>
       <c r="B18" s="48" t="n">
         <f aca="false">(A18*64)*($C$7)</f>
-        <v>1152</v>
+        <v>1728</v>
       </c>
       <c r="C18" s="48" t="n">
         <f aca="false">(A18*64)*($D$7)</f>
-        <v>1728</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="48" t="n">
         <f aca="false">B18*C18</f>
@@ -1782,9 +1783,10 @@
         <v>1536</v>
       </c>
       <c r="G18" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H18" s="50" t="str">
+      <c r="H18" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F18/GCD(G18,F18),":",G18/GCD(G18,F18))</f>
         <v>8:11</v>
       </c>
@@ -1796,13 +1798,14 @@
         <v>1536</v>
       </c>
       <c r="K18" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L18" s="50" t="str">
+      <c r="L18" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J18/GCD(K18,J18),":",K18/GCD(K18,J18))</f>
         <v>24:31</v>
       </c>
-      <c r="M18" s="51" t="n">
+      <c r="M18" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J18/K18) &lt; ($C$3/$B$3)/(J18/K18),($B$3/$C$3)/(J18/K18),($C$3/$B$3)/(J18/K18))</f>
         <v>0.861111111111111</v>
       </c>
@@ -1828,11 +1831,11 @@
       </c>
       <c r="B19" s="48" t="n">
         <f aca="false">(A19*64)*($C$7)</f>
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="C19" s="48" t="n">
         <f aca="false">(A19*64)*($D$7)</f>
-        <v>1920</v>
+        <v>1280</v>
       </c>
       <c r="D19" s="48" t="n">
         <f aca="false">B19*C19</f>
@@ -1843,9 +1846,10 @@
         <v>1600</v>
       </c>
       <c r="G19" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H19" s="50" t="str">
+      <c r="H19" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F19/GCD(G19,F19),":",G19/GCD(G19,F19))</f>
         <v>25:33</v>
       </c>
@@ -1857,13 +1861,14 @@
         <v>1600</v>
       </c>
       <c r="K19" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L19" s="50" t="str">
+      <c r="L19" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J19/GCD(K19,J19),":",K19/GCD(K19,J19))</f>
         <v>25:31</v>
       </c>
-      <c r="M19" s="51" t="n">
+      <c r="M19" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J19/K19) &lt; ($C$3/$B$3)/(J19/K19),($B$3/$C$3)/(J19/K19),($C$3/$B$3)/(J19/K19))</f>
         <v>0.826666666666667</v>
       </c>
@@ -1889,11 +1894,11 @@
       </c>
       <c r="B20" s="48" t="n">
         <f aca="false">(A20*64)*($C$7)</f>
-        <v>1408</v>
+        <v>2112</v>
       </c>
       <c r="C20" s="48" t="n">
         <f aca="false">(A20*64)*($D$7)</f>
-        <v>2112</v>
+        <v>1408</v>
       </c>
       <c r="D20" s="48" t="n">
         <f aca="false">B20*C20</f>
@@ -1904,9 +1909,10 @@
         <v>1664</v>
       </c>
       <c r="G20" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H20" s="50" t="str">
+      <c r="H20" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F20/GCD(G20,F20),":",G20/GCD(G20,F20))</f>
         <v>26:33</v>
       </c>
@@ -1918,13 +1924,14 @@
         <v>1664</v>
       </c>
       <c r="K20" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L20" s="50" t="str">
+      <c r="L20" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J20/GCD(K20,J20),":",K20/GCD(K20,J20))</f>
         <v>26:31</v>
       </c>
-      <c r="M20" s="51" t="n">
+      <c r="M20" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J20/K20) &lt; ($C$3/$B$3)/(J20/K20),($B$3/$C$3)/(J20/K20),($C$3/$B$3)/(J20/K20))</f>
         <v>0.794871794871795</v>
       </c>
@@ -1950,11 +1957,11 @@
       </c>
       <c r="B21" s="48" t="n">
         <f aca="false">(A21*64)*($C$7)</f>
-        <v>1536</v>
+        <v>2304</v>
       </c>
       <c r="C21" s="48" t="n">
         <f aca="false">(A21*64)*($D$7)</f>
-        <v>2304</v>
+        <v>1536</v>
       </c>
       <c r="D21" s="48" t="n">
         <f aca="false">B21*C21</f>
@@ -1965,9 +1972,10 @@
         <v>1728</v>
       </c>
       <c r="G21" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H21" s="50" t="str">
+      <c r="H21" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F21/GCD(G21,F21),":",G21/GCD(G21,F21))</f>
         <v>9:11</v>
       </c>
@@ -1979,13 +1987,14 @@
         <v>1728</v>
       </c>
       <c r="K21" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L21" s="50" t="str">
+      <c r="L21" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J21/GCD(K21,J21),":",K21/GCD(K21,J21))</f>
         <v>27:31</v>
       </c>
-      <c r="M21" s="51" t="n">
+      <c r="M21" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J21/K21) &lt; ($C$3/$B$3)/(J21/K21),($B$3/$C$3)/(J21/K21),($C$3/$B$3)/(J21/K21))</f>
         <v>0.765432098765432</v>
       </c>
@@ -2011,11 +2020,11 @@
       </c>
       <c r="B22" s="48" t="n">
         <f aca="false">(A22*64)*($C$7)</f>
-        <v>1664</v>
+        <v>2496</v>
       </c>
       <c r="C22" s="48" t="n">
         <f aca="false">(A22*64)*($D$7)</f>
-        <v>2496</v>
+        <v>1664</v>
       </c>
       <c r="D22" s="48" t="n">
         <f aca="false">B22*C22</f>
@@ -2026,9 +2035,10 @@
         <v>1792</v>
       </c>
       <c r="G22" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H22" s="50" t="str">
+      <c r="H22" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F22/GCD(G22,F22),":",G22/GCD(G22,F22))</f>
         <v>28:33</v>
       </c>
@@ -2040,13 +2050,14 @@
         <v>1792</v>
       </c>
       <c r="K22" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L22" s="50" t="str">
+      <c r="L22" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J22/GCD(K22,J22),":",K22/GCD(K22,J22))</f>
         <v>28:31</v>
       </c>
-      <c r="M22" s="51" t="n">
+      <c r="M22" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J22/K22) &lt; ($C$3/$B$3)/(J22/K22),($B$3/$C$3)/(J22/K22),($C$3/$B$3)/(J22/K22))</f>
         <v>0.738095238095238</v>
       </c>
@@ -2072,11 +2083,11 @@
       </c>
       <c r="B23" s="48" t="n">
         <f aca="false">(A23*64)*($C$7)</f>
-        <v>1792</v>
+        <v>2688</v>
       </c>
       <c r="C23" s="48" t="n">
         <f aca="false">(A23*64)*($D$7)</f>
-        <v>2688</v>
+        <v>1792</v>
       </c>
       <c r="D23" s="48" t="n">
         <f aca="false">B23*C23</f>
@@ -2087,9 +2098,10 @@
         <v>1856</v>
       </c>
       <c r="G23" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H23" s="50" t="str">
+      <c r="H23" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F23/GCD(G23,F23),":",G23/GCD(G23,F23))</f>
         <v>29:33</v>
       </c>
@@ -2101,13 +2113,14 @@
         <v>1856</v>
       </c>
       <c r="K23" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L23" s="50" t="str">
+      <c r="L23" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J23/GCD(K23,J23),":",K23/GCD(K23,J23))</f>
         <v>29:31</v>
       </c>
-      <c r="M23" s="51" t="n">
+      <c r="M23" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J23/K23) &lt; ($C$3/$B$3)/(J23/K23),($B$3/$C$3)/(J23/K23),($C$3/$B$3)/(J23/K23))</f>
         <v>0.71264367816092</v>
       </c>
@@ -2133,11 +2146,11 @@
       </c>
       <c r="B24" s="48" t="n">
         <f aca="false">(A24*64)*($C$7)</f>
-        <v>1920</v>
+        <v>2880</v>
       </c>
       <c r="C24" s="48" t="n">
         <f aca="false">(A24*64)*($D$7)</f>
-        <v>2880</v>
+        <v>1920</v>
       </c>
       <c r="D24" s="48" t="n">
         <f aca="false">B24*C24</f>
@@ -2148,9 +2161,10 @@
         <v>1920</v>
       </c>
       <c r="G24" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H24" s="50" t="str">
+      <c r="H24" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F24/GCD(G24,F24),":",G24/GCD(G24,F24))</f>
         <v>10:11</v>
       </c>
@@ -2162,13 +2176,14 @@
         <v>1920</v>
       </c>
       <c r="K24" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L24" s="50" t="str">
+      <c r="L24" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J24/GCD(K24,J24),":",K24/GCD(K24,J24))</f>
         <v>30:31</v>
       </c>
-      <c r="M24" s="51" t="n">
+      <c r="M24" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J24/K24) &lt; ($C$3/$B$3)/(J24/K24),($B$3/$C$3)/(J24/K24),($C$3/$B$3)/(J24/K24))</f>
         <v>0.688888888888889</v>
       </c>
@@ -2194,11 +2209,11 @@
       </c>
       <c r="B25" s="48" t="n">
         <f aca="false">(A25*64)*($C$7)</f>
-        <v>2048</v>
+        <v>3072</v>
       </c>
       <c r="C25" s="48" t="n">
         <f aca="false">(A25*64)*($D$7)</f>
-        <v>3072</v>
+        <v>2048</v>
       </c>
       <c r="D25" s="48" t="n">
         <f aca="false">B25*C25</f>
@@ -2209,9 +2224,10 @@
         <v>1984</v>
       </c>
       <c r="G25" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H25" s="50" t="str">
+      <c r="H25" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F25/GCD(G25,F25),":",G25/GCD(G25,F25))</f>
         <v>31:33</v>
       </c>
@@ -2223,13 +2239,14 @@
         <v>1984</v>
       </c>
       <c r="K25" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L25" s="50" t="str">
+      <c r="L25" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J25/GCD(K25,J25),":",K25/GCD(K25,J25))</f>
         <v>1:1</v>
       </c>
-      <c r="M25" s="51" t="n">
+      <c r="M25" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J25/K25) &lt; ($C$3/$B$3)/(J25/K25),($B$3/$C$3)/(J25/K25),($C$3/$B$3)/(J25/K25))</f>
         <v>0.666666666666667</v>
       </c>
@@ -2255,11 +2272,11 @@
       </c>
       <c r="B26" s="48" t="n">
         <f aca="false">(A26*64)*($C$7)</f>
-        <v>2176</v>
+        <v>3264</v>
       </c>
       <c r="C26" s="48" t="n">
         <f aca="false">(A26*64)*($D$7)</f>
-        <v>3264</v>
+        <v>2176</v>
       </c>
       <c r="D26" s="48" t="n">
         <f aca="false">B26*C26</f>
@@ -2270,9 +2287,10 @@
         <v>2048</v>
       </c>
       <c r="G26" s="4" t="n">
+        <f aca="false">$G$10</f>
         <v>2112</v>
       </c>
-      <c r="H26" s="50" t="str">
+      <c r="H26" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F26/GCD(G26,F26),":",G26/GCD(G26,F26))</f>
         <v>32:33</v>
       </c>
@@ -2283,14 +2301,15 @@
       <c r="J26" s="4" t="n">
         <v>2048</v>
       </c>
-      <c r="K26" s="52" t="n">
+      <c r="K26" s="4" t="n">
+        <f aca="false">$G$10-(64*2)</f>
         <v>1984</v>
       </c>
-      <c r="L26" s="50" t="str">
+      <c r="L26" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J26/GCD(K26,J26),":",K26/GCD(K26,J26))</f>
         <v>32:31</v>
       </c>
-      <c r="M26" s="51" t="n">
+      <c r="M26" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J26/K26) &lt; ($C$3/$B$3)/(J26/K26),($B$3/$C$3)/(J26/K26),($C$3/$B$3)/(J26/K26))</f>
         <v>0.645833333333333</v>
       </c>
@@ -2316,11 +2335,11 @@
       </c>
       <c r="B27" s="48" t="n">
         <f aca="false">(A27*64)*($C$7)</f>
-        <v>2304</v>
+        <v>3456</v>
       </c>
       <c r="C27" s="48" t="n">
         <f aca="false">(A27*64)*($D$7)</f>
-        <v>3456</v>
+        <v>2304</v>
       </c>
       <c r="D27" s="48" t="n">
         <f aca="false">B27*C27</f>
@@ -2331,9 +2350,10 @@
         <v>1024</v>
       </c>
       <c r="G27" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H27" s="50" t="str">
+      <c r="H27" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F27/GCD(G27,F27),":",G27/GCD(G27,F27))</f>
         <v>1:2</v>
       </c>
@@ -2345,13 +2365,14 @@
         <v>1024</v>
       </c>
       <c r="K27" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L27" s="50" t="str">
+      <c r="L27" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J27/GCD(K27,J27),":",K27/GCD(K27,J27))</f>
         <v>8:15</v>
       </c>
-      <c r="M27" s="51" t="n">
+      <c r="M27" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J27/K27) &lt; ($C$3/$B$3)/(J27/K27),($B$3/$C$3)/(J27/K27),($C$3/$B$3)/(J27/K27))</f>
         <v>1.25</v>
       </c>
@@ -2377,11 +2398,11 @@
       </c>
       <c r="B28" s="48" t="n">
         <f aca="false">(A28*64)*($C$7)</f>
-        <v>2432</v>
+        <v>3648</v>
       </c>
       <c r="C28" s="48" t="n">
         <f aca="false">(A28*64)*($D$7)</f>
-        <v>3648</v>
+        <v>2432</v>
       </c>
       <c r="D28" s="48" t="n">
         <f aca="false">B28*C28</f>
@@ -2392,9 +2413,10 @@
         <v>1088</v>
       </c>
       <c r="G28" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H28" s="50" t="str">
+      <c r="H28" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F28/GCD(G28,F28),":",G28/GCD(G28,F28))</f>
         <v>17:32</v>
       </c>
@@ -2406,13 +2428,14 @@
         <v>1088</v>
       </c>
       <c r="K28" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L28" s="50" t="str">
+      <c r="L28" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J28/GCD(K28,J28),":",K28/GCD(K28,J28))</f>
         <v>17:30</v>
       </c>
-      <c r="M28" s="51" t="n">
+      <c r="M28" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J28/K28) &lt; ($C$3/$B$3)/(J28/K28),($B$3/$C$3)/(J28/K28),($C$3/$B$3)/(J28/K28))</f>
         <v>1.17647058823529</v>
       </c>
@@ -2438,11 +2461,11 @@
       </c>
       <c r="B29" s="48" t="n">
         <f aca="false">(A29*64)*($C$7)</f>
-        <v>2560</v>
+        <v>3840</v>
       </c>
       <c r="C29" s="48" t="n">
         <f aca="false">(A29*64)*($D$7)</f>
-        <v>3840</v>
+        <v>2560</v>
       </c>
       <c r="D29" s="48" t="n">
         <f aca="false">B29*C29</f>
@@ -2453,9 +2476,10 @@
         <v>1152</v>
       </c>
       <c r="G29" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H29" s="50" t="str">
+      <c r="H29" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F29/GCD(G29,F29),":",G29/GCD(G29,F29))</f>
         <v>9:16</v>
       </c>
@@ -2467,13 +2491,14 @@
         <v>1152</v>
       </c>
       <c r="K29" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L29" s="50" t="str">
+      <c r="L29" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J29/GCD(K29,J29),":",K29/GCD(K29,J29))</f>
         <v>3:5</v>
       </c>
-      <c r="M29" s="51" t="n">
+      <c r="M29" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J29/K29) &lt; ($C$3/$B$3)/(J29/K29),($B$3/$C$3)/(J29/K29),($C$3/$B$3)/(J29/K29))</f>
         <v>1.11111111111111</v>
       </c>
@@ -2499,11 +2524,11 @@
       </c>
       <c r="B30" s="48" t="n">
         <f aca="false">(A30*64)*($C$7)</f>
-        <v>2688</v>
+        <v>4032</v>
       </c>
       <c r="C30" s="48" t="n">
         <f aca="false">(A30*64)*($D$7)</f>
-        <v>4032</v>
+        <v>2688</v>
       </c>
       <c r="D30" s="48" t="n">
         <f aca="false">B30*C30</f>
@@ -2514,9 +2539,10 @@
         <v>1216</v>
       </c>
       <c r="G30" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H30" s="50" t="str">
+      <c r="H30" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F30/GCD(G30,F30),":",G30/GCD(G30,F30))</f>
         <v>19:32</v>
       </c>
@@ -2528,13 +2554,14 @@
         <v>1216</v>
       </c>
       <c r="K30" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L30" s="50" t="str">
+      <c r="L30" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J30/GCD(K30,J30),":",K30/GCD(K30,J30))</f>
         <v>19:30</v>
       </c>
-      <c r="M30" s="51" t="n">
+      <c r="M30" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J30/K30) &lt; ($C$3/$B$3)/(J30/K30),($B$3/$C$3)/(J30/K30),($C$3/$B$3)/(J30/K30))</f>
         <v>1.05263157894737</v>
       </c>
@@ -2560,11 +2587,11 @@
       </c>
       <c r="B31" s="48" t="n">
         <f aca="false">(A31*64)*($C$7)</f>
-        <v>2816</v>
+        <v>4224</v>
       </c>
       <c r="C31" s="48" t="n">
         <f aca="false">(A31*64)*($D$7)</f>
-        <v>4224</v>
+        <v>2816</v>
       </c>
       <c r="D31" s="48" t="n">
         <f aca="false">B31*C31</f>
@@ -2575,9 +2602,10 @@
         <v>1280</v>
       </c>
       <c r="G31" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H31" s="50" t="str">
+      <c r="H31" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F31/GCD(G31,F31),":",G31/GCD(G31,F31))</f>
         <v>5:8</v>
       </c>
@@ -2589,13 +2617,14 @@
         <v>1280</v>
       </c>
       <c r="K31" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L31" s="50" t="str">
+      <c r="L31" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J31/GCD(K31,J31),":",K31/GCD(K31,J31))</f>
         <v>2:3</v>
       </c>
-      <c r="M31" s="51" t="n">
+      <c r="M31" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J31/K31) &lt; ($C$3/$B$3)/(J31/K31),($B$3/$C$3)/(J31/K31),($C$3/$B$3)/(J31/K31))</f>
         <v>1</v>
       </c>
@@ -2621,11 +2650,11 @@
       </c>
       <c r="B32" s="48" t="n">
         <f aca="false">(A32*64)*($C$7)</f>
-        <v>2944</v>
+        <v>4416</v>
       </c>
       <c r="C32" s="48" t="n">
         <f aca="false">(A32*64)*($D$7)</f>
-        <v>4416</v>
+        <v>2944</v>
       </c>
       <c r="D32" s="48" t="n">
         <f aca="false">B32*C32</f>
@@ -2636,9 +2665,10 @@
         <v>1344</v>
       </c>
       <c r="G32" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H32" s="50" t="str">
+      <c r="H32" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F32/GCD(G32,F32),":",G32/GCD(G32,F32))</f>
         <v>21:32</v>
       </c>
@@ -2650,13 +2680,14 @@
         <v>1344</v>
       </c>
       <c r="K32" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L32" s="50" t="str">
+      <c r="L32" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J32/GCD(K32,J32),":",K32/GCD(K32,J32))</f>
         <v>7:10</v>
       </c>
-      <c r="M32" s="51" t="n">
+      <c r="M32" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J32/K32) &lt; ($C$3/$B$3)/(J32/K32),($B$3/$C$3)/(J32/K32),($C$3/$B$3)/(J32/K32))</f>
         <v>0.952380952380952</v>
       </c>
@@ -2682,11 +2713,11 @@
       </c>
       <c r="B33" s="48" t="n">
         <f aca="false">(A33*64)*($C$7)</f>
-        <v>3072</v>
+        <v>4608</v>
       </c>
       <c r="C33" s="48" t="n">
         <f aca="false">(A33*64)*($D$7)</f>
-        <v>4608</v>
+        <v>3072</v>
       </c>
       <c r="D33" s="48" t="n">
         <f aca="false">B33*C33</f>
@@ -2697,9 +2728,10 @@
         <v>1408</v>
       </c>
       <c r="G33" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H33" s="50" t="str">
+      <c r="H33" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F33/GCD(G33,F33),":",G33/GCD(G33,F33))</f>
         <v>11:16</v>
       </c>
@@ -2711,13 +2743,14 @@
         <v>1408</v>
       </c>
       <c r="K33" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L33" s="50" t="str">
+      <c r="L33" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J33/GCD(K33,J33),":",K33/GCD(K33,J33))</f>
         <v>11:15</v>
       </c>
-      <c r="M33" s="51" t="n">
+      <c r="M33" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J33/K33) &lt; ($C$3/$B$3)/(J33/K33),($B$3/$C$3)/(J33/K33),($C$3/$B$3)/(J33/K33))</f>
         <v>0.909090909090909</v>
       </c>
@@ -2743,11 +2776,11 @@
       </c>
       <c r="B34" s="48" t="n">
         <f aca="false">(A34*64)*($C$7)</f>
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="C34" s="48" t="n">
         <f aca="false">(A34*64)*($D$7)</f>
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="D34" s="48" t="n">
         <f aca="false">B34*C34</f>
@@ -2758,9 +2791,10 @@
         <v>1472</v>
       </c>
       <c r="G34" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H34" s="50" t="str">
+      <c r="H34" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F34/GCD(G34,F34),":",G34/GCD(G34,F34))</f>
         <v>23:32</v>
       </c>
@@ -2772,13 +2806,14 @@
         <v>1472</v>
       </c>
       <c r="K34" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L34" s="50" t="str">
+      <c r="L34" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J34/GCD(K34,J34),":",K34/GCD(K34,J34))</f>
         <v>23:30</v>
       </c>
-      <c r="M34" s="51" t="n">
+      <c r="M34" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J34/K34) &lt; ($C$3/$B$3)/(J34/K34),($B$3/$C$3)/(J34/K34),($C$3/$B$3)/(J34/K34))</f>
         <v>0.869565217391304</v>
       </c>
@@ -2804,11 +2839,11 @@
       </c>
       <c r="B35" s="48" t="n">
         <f aca="false">(A35*64)*($C$7)</f>
-        <v>3328</v>
+        <v>4992</v>
       </c>
       <c r="C35" s="48" t="n">
         <f aca="false">(A35*64)*($D$7)</f>
-        <v>4992</v>
+        <v>3328</v>
       </c>
       <c r="D35" s="48" t="n">
         <f aca="false">B35*C35</f>
@@ -2819,9 +2854,10 @@
         <v>1536</v>
       </c>
       <c r="G35" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H35" s="50" t="str">
+      <c r="H35" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F35/GCD(G35,F35),":",G35/GCD(G35,F35))</f>
         <v>3:4</v>
       </c>
@@ -2833,13 +2869,14 @@
         <v>1536</v>
       </c>
       <c r="K35" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L35" s="50" t="str">
+      <c r="L35" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J35/GCD(K35,J35),":",K35/GCD(K35,J35))</f>
         <v>4:5</v>
       </c>
-      <c r="M35" s="51" t="n">
+      <c r="M35" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J35/K35) &lt; ($C$3/$B$3)/(J35/K35),($B$3/$C$3)/(J35/K35),($C$3/$B$3)/(J35/K35))</f>
         <v>0.833333333333333</v>
       </c>
@@ -2865,11 +2902,11 @@
       </c>
       <c r="B36" s="48" t="n">
         <f aca="false">(A36*64)*($C$7)</f>
-        <v>3456</v>
+        <v>5184</v>
       </c>
       <c r="C36" s="48" t="n">
         <f aca="false">(A36*64)*($D$7)</f>
-        <v>5184</v>
+        <v>3456</v>
       </c>
       <c r="D36" s="48" t="n">
         <f aca="false">B36*C36</f>
@@ -2880,9 +2917,10 @@
         <v>1600</v>
       </c>
       <c r="G36" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H36" s="50" t="str">
+      <c r="H36" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F36/GCD(G36,F36),":",G36/GCD(G36,F36))</f>
         <v>25:32</v>
       </c>
@@ -2894,13 +2932,14 @@
         <v>1600</v>
       </c>
       <c r="K36" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L36" s="50" t="str">
+      <c r="L36" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J36/GCD(K36,J36),":",K36/GCD(K36,J36))</f>
         <v>5:6</v>
       </c>
-      <c r="M36" s="51" t="n">
+      <c r="M36" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J36/K36) &lt; ($C$3/$B$3)/(J36/K36),($B$3/$C$3)/(J36/K36),($C$3/$B$3)/(J36/K36))</f>
         <v>0.8</v>
       </c>
@@ -2926,11 +2965,11 @@
       </c>
       <c r="B37" s="48" t="n">
         <f aca="false">(A37*64)*($C$7)</f>
-        <v>3584</v>
+        <v>5376</v>
       </c>
       <c r="C37" s="48" t="n">
         <f aca="false">(A37*64)*($D$7)</f>
-        <v>5376</v>
+        <v>3584</v>
       </c>
       <c r="D37" s="48" t="n">
         <f aca="false">B37*C37</f>
@@ -2941,9 +2980,10 @@
         <v>1664</v>
       </c>
       <c r="G37" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H37" s="50" t="str">
+      <c r="H37" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F37/GCD(G37,F37),":",G37/GCD(G37,F37))</f>
         <v>13:16</v>
       </c>
@@ -2955,13 +2995,14 @@
         <v>1664</v>
       </c>
       <c r="K37" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L37" s="50" t="str">
+      <c r="L37" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J37/GCD(K37,J37),":",K37/GCD(K37,J37))</f>
         <v>13:15</v>
       </c>
-      <c r="M37" s="51" t="n">
+      <c r="M37" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J37/K37) &lt; ($C$3/$B$3)/(J37/K37),($B$3/$C$3)/(J37/K37),($C$3/$B$3)/(J37/K37))</f>
         <v>0.769230769230769</v>
       </c>
@@ -2987,11 +3028,11 @@
       </c>
       <c r="B38" s="48" t="n">
         <f aca="false">(A38*64)*($C$7)</f>
-        <v>3712</v>
+        <v>5568</v>
       </c>
       <c r="C38" s="48" t="n">
         <f aca="false">(A38*64)*($D$7)</f>
-        <v>5568</v>
+        <v>3712</v>
       </c>
       <c r="D38" s="48" t="n">
         <f aca="false">B38*C38</f>
@@ -3002,9 +3043,10 @@
         <v>1728</v>
       </c>
       <c r="G38" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H38" s="50" t="str">
+      <c r="H38" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F38/GCD(G38,F38),":",G38/GCD(G38,F38))</f>
         <v>27:32</v>
       </c>
@@ -3016,13 +3058,14 @@
         <v>1728</v>
       </c>
       <c r="K38" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L38" s="50" t="str">
+      <c r="L38" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J38/GCD(K38,J38),":",K38/GCD(K38,J38))</f>
         <v>9:10</v>
       </c>
-      <c r="M38" s="51" t="n">
+      <c r="M38" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J38/K38) &lt; ($C$3/$B$3)/(J38/K38),($B$3/$C$3)/(J38/K38),($C$3/$B$3)/(J38/K38))</f>
         <v>0.740740740740741</v>
       </c>
@@ -3048,11 +3091,11 @@
       </c>
       <c r="B39" s="48" t="n">
         <f aca="false">(A39*64)*($C$7)</f>
-        <v>3840</v>
+        <v>5760</v>
       </c>
       <c r="C39" s="48" t="n">
         <f aca="false">(A39*64)*($D$7)</f>
-        <v>5760</v>
+        <v>3840</v>
       </c>
       <c r="D39" s="48" t="n">
         <f aca="false">B39*C39</f>
@@ -3063,9 +3106,10 @@
         <v>1792</v>
       </c>
       <c r="G39" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H39" s="50" t="str">
+      <c r="H39" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F39/GCD(G39,F39),":",G39/GCD(G39,F39))</f>
         <v>7:8</v>
       </c>
@@ -3077,13 +3121,14 @@
         <v>1792</v>
       </c>
       <c r="K39" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L39" s="50" t="str">
+      <c r="L39" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J39/GCD(K39,J39),":",K39/GCD(K39,J39))</f>
         <v>14:15</v>
       </c>
-      <c r="M39" s="51" t="n">
+      <c r="M39" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J39/K39) &lt; ($C$3/$B$3)/(J39/K39),($B$3/$C$3)/(J39/K39),($C$3/$B$3)/(J39/K39))</f>
         <v>0.714285714285714</v>
       </c>
@@ -3109,11 +3154,11 @@
       </c>
       <c r="B40" s="48" t="n">
         <f aca="false">(A40*64)*($C$7)</f>
-        <v>3968</v>
+        <v>5952</v>
       </c>
       <c r="C40" s="48" t="n">
         <f aca="false">(A40*64)*($D$7)</f>
-        <v>5952</v>
+        <v>3968</v>
       </c>
       <c r="D40" s="48" t="n">
         <f aca="false">B40*C40</f>
@@ -3124,9 +3169,10 @@
         <v>1856</v>
       </c>
       <c r="G40" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H40" s="50" t="str">
+      <c r="H40" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F40/GCD(G40,F40),":",G40/GCD(G40,F40))</f>
         <v>29:32</v>
       </c>
@@ -3138,13 +3184,14 @@
         <v>1856</v>
       </c>
       <c r="K40" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L40" s="50" t="str">
+      <c r="L40" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J40/GCD(K40,J40),":",K40/GCD(K40,J40))</f>
         <v>29:30</v>
       </c>
-      <c r="M40" s="51" t="n">
+      <c r="M40" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J40/K40) &lt; ($C$3/$B$3)/(J40/K40),($B$3/$C$3)/(J40/K40),($C$3/$B$3)/(J40/K40))</f>
         <v>0.689655172413793</v>
       </c>
@@ -3170,11 +3217,11 @@
       </c>
       <c r="B41" s="48" t="n">
         <f aca="false">(A41*64)*($C$7)</f>
-        <v>4096</v>
+        <v>6144</v>
       </c>
       <c r="C41" s="48" t="n">
         <f aca="false">(A41*64)*($D$7)</f>
-        <v>6144</v>
+        <v>4096</v>
       </c>
       <c r="D41" s="48" t="n">
         <f aca="false">B41*C41</f>
@@ -3185,9 +3232,10 @@
         <v>1920</v>
       </c>
       <c r="G41" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H41" s="50" t="str">
+      <c r="H41" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F41/GCD(G41,F41),":",G41/GCD(G41,F41))</f>
         <v>15:16</v>
       </c>
@@ -3199,13 +3247,14 @@
         <v>1920</v>
       </c>
       <c r="K41" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L41" s="50" t="str">
+      <c r="L41" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J41/GCD(K41,J41),":",K41/GCD(K41,J41))</f>
         <v>1:1</v>
       </c>
-      <c r="M41" s="51" t="n">
+      <c r="M41" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J41/K41) &lt; ($C$3/$B$3)/(J41/K41),($B$3/$C$3)/(J41/K41),($C$3/$B$3)/(J41/K41))</f>
         <v>0.666666666666667</v>
       </c>
@@ -3235,9 +3284,10 @@
         <v>1984</v>
       </c>
       <c r="G42" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H42" s="50" t="str">
+      <c r="H42" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(F42/GCD(G42,F42),":",G42/GCD(G42,F42))</f>
         <v>31:32</v>
       </c>
@@ -3249,13 +3299,14 @@
         <v>1984</v>
       </c>
       <c r="K42" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L42" s="50" t="str">
+      <c r="L42" s="51" t="str">
         <f aca="false">_xlfn.CONCAT(J42/GCD(K42,J42),":",K42/GCD(K42,J42))</f>
         <v>31:30</v>
       </c>
-      <c r="M42" s="51" t="n">
+      <c r="M42" s="52" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J42/K42) &lt; ($C$3/$B$3)/(J42/K42),($B$3/$C$3)/(J42/K42),($C$3/$B$3)/(J42/K42))</f>
         <v>0.645161290322581</v>
       </c>
@@ -3277,35 +3328,37 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="53"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="53" t="n">
         <v>2048</v>
       </c>
-      <c r="G43" s="52" t="n">
+      <c r="G43" s="4" t="n">
+        <f aca="false">$G$10-64</f>
         <v>2048</v>
       </c>
-      <c r="H43" s="54" t="str">
+      <c r="H43" s="55" t="str">
         <f aca="false">_xlfn.CONCAT(F43/GCD(G43,F43),":",G43/GCD(G43,F43))</f>
         <v>1:1</v>
       </c>
-      <c r="I43" s="55" t="n">
+      <c r="I43" s="56" t="n">
         <f aca="false">IF(($B$3/$C$3)/(F43/G43) &lt; ($C$3/$B$3)/(F43/G43),($B$3/$C$3)/(F43/G43),($C$3/$B$3)/(F43/G43))</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="J43" s="52" t="n">
+      <c r="J43" s="54" t="n">
         <v>2048</v>
       </c>
-      <c r="K43" s="52" t="n">
+      <c r="K43" s="4" t="n">
+        <f aca="false">$G$10-(64*3)</f>
         <v>1920</v>
       </c>
-      <c r="L43" s="54" t="str">
+      <c r="L43" s="55" t="str">
         <f aca="false">_xlfn.CONCAT(J43/GCD(K43,J43),":",K43/GCD(K43,J43))</f>
         <v>16:15</v>
       </c>
-      <c r="M43" s="56" t="n">
+      <c r="M43" s="57" t="n">
         <f aca="false">IF(($B$3/$C$3)/(J43/K43) &lt; ($C$3/$B$3)/(J43/K43),($B$3/$C$3)/(J43/K43),($C$3/$B$3)/(J43/K43))</f>
         <v>0.625</v>
       </c>
@@ -3596,7 +3649,7 @@
       <c r="AB52" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="ce88" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <conditionalFormatting sqref="D10:D41">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>Sheet1!$D$3</formula>
